--- a/ImmPort/CompletedTemplates/reagents.Flow_Cytometry.xlsx
+++ b/ImmPort/CompletedTemplates/reagents.Flow_Cytometry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drach\Documents\AlphaBeta\ImmPort\CompletedTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F55FC3-059D-4304-BAFE-B235AA5F673F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A264C6A3-13E9-4AD6-9752-CE065FDFDCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="1046">
   <si>
     <t>flow_cytometry_reagents</t>
   </si>
@@ -3328,6 +3328,18 @@
   </si>
   <si>
     <t>Alexa Fluor 488 CD3</t>
+  </si>
+  <si>
+    <t>Alexa Fluor 488 hCD1d unloaded</t>
+  </si>
+  <si>
+    <t>hCD1d unloaded</t>
+  </si>
+  <si>
+    <t>Alexa Fluor 647 hMR1 6-FP</t>
+  </si>
+  <si>
+    <t>hMR1 6-FP</t>
   </si>
 </sst>
 </file>
@@ -3780,10 +3792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M200"/>
+  <dimension ref="A1:M202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4247,187 +4259,187 @@
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
-        <v>997</v>
+        <v>1042</v>
       </c>
       <c r="E23" t="s">
-        <v>961</v>
-      </c>
-      <c r="F23">
-        <v>342906</v>
+        <v>994</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1040</v>
       </c>
       <c r="J23" t="s">
-        <v>998</v>
+        <v>1043</v>
       </c>
       <c r="L23" t="s">
-        <v>999</v>
+        <v>1040</v>
       </c>
       <c r="M23" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="E24" t="s">
         <v>961</v>
       </c>
       <c r="F24">
-        <v>320806</v>
+        <v>342906</v>
       </c>
       <c r="J24" t="s">
-        <v>301</v>
+        <v>998</v>
       </c>
       <c r="L24" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="M24" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="E25" t="s">
         <v>961</v>
       </c>
       <c r="F25">
-        <v>302716</v>
+        <v>320806</v>
       </c>
       <c r="J25" t="s">
-        <v>245</v>
+        <v>301</v>
       </c>
       <c r="L25" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="M25" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="E26" t="s">
-        <v>938</v>
+        <v>961</v>
       </c>
       <c r="F26">
-        <v>555433</v>
+        <v>302716</v>
       </c>
       <c r="J26" t="s">
-        <v>1008</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="M26" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="E27" t="s">
-        <v>961</v>
+        <v>938</v>
       </c>
       <c r="F27">
-        <v>502946</v>
+        <v>555433</v>
       </c>
       <c r="J27" t="s">
-        <v>877</v>
+        <v>1008</v>
       </c>
       <c r="L27" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="M27" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="E28" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1016</v>
+        <v>961</v>
+      </c>
+      <c r="F28">
+        <v>502946</v>
       </c>
       <c r="J28" t="s">
-        <v>821</v>
+        <v>877</v>
       </c>
       <c r="L28" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="M28" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="E29" t="s">
-        <v>961</v>
-      </c>
-      <c r="F29">
-        <v>302012</v>
+        <v>1015</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1016</v>
       </c>
       <c r="J29" t="s">
-        <v>146</v>
+        <v>821</v>
       </c>
       <c r="L29" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="M29" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="E30" t="s">
-        <v>994</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1040</v>
+        <v>961</v>
+      </c>
+      <c r="F30">
+        <v>302012</v>
       </c>
       <c r="J30" t="s">
-        <v>1023</v>
+        <v>146</v>
       </c>
       <c r="L30" t="s">
-        <v>1040</v>
+        <v>1020</v>
       </c>
       <c r="M30" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="E31" t="s">
-        <v>961</v>
-      </c>
-      <c r="F31">
-        <v>351726</v>
+        <v>994</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1040</v>
       </c>
       <c r="J31" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="L31" t="s">
-        <v>1027</v>
+        <v>1040</v>
       </c>
       <c r="M31" t="s">
         <v>1024</v>
@@ -4436,137 +4448,149 @@
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" t="s">
-        <v>1028</v>
+        <v>1044</v>
       </c>
       <c r="E32" t="s">
-        <v>938</v>
-      </c>
-      <c r="F32">
-        <v>565184</v>
+        <v>994</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1040</v>
       </c>
       <c r="J32" t="s">
-        <v>98</v>
+        <v>1045</v>
       </c>
       <c r="L32" t="s">
-        <v>1029</v>
+        <v>1040</v>
       </c>
       <c r="M32" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="E33" t="s">
         <v>961</v>
       </c>
       <c r="F33">
-        <v>302846</v>
+        <v>351726</v>
       </c>
       <c r="J33" t="s">
-        <v>248</v>
+        <v>1026</v>
       </c>
       <c r="L33" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="M33" t="s">
-        <v>1033</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="E34" t="s">
-        <v>961</v>
+        <v>938</v>
       </c>
       <c r="F34">
-        <v>303550</v>
+        <v>565184</v>
       </c>
       <c r="J34" t="s">
-        <v>335</v>
+        <v>98</v>
       </c>
       <c r="L34" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="M34" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="E35" t="s">
         <v>961</v>
       </c>
       <c r="F35">
-        <v>300415</v>
+        <v>302846</v>
       </c>
       <c r="J35" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="L35" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="M35" t="s">
-        <v>996</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="E36" t="s">
         <v>961</v>
       </c>
       <c r="F36">
-        <v>317312</v>
+        <v>303550</v>
       </c>
       <c r="J36" t="s">
-        <v>279</v>
+        <v>335</v>
       </c>
       <c r="L36" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="M36" t="s">
-        <v>1024</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+      <c r="B37" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E37" t="s">
+        <v>961</v>
+      </c>
+      <c r="F37">
+        <v>300415</v>
+      </c>
+      <c r="J37" t="s">
+        <v>279</v>
+      </c>
+      <c r="L37" t="s">
+        <v>1038</v>
+      </c>
+      <c r="M37" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+      <c r="B38" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E38" t="s">
+        <v>961</v>
+      </c>
+      <c r="F38">
+        <v>317312</v>
+      </c>
+      <c r="J38" t="s">
+        <v>279</v>
+      </c>
+      <c r="L38" t="s">
+        <v>1039</v>
+      </c>
+      <c r="M38" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
@@ -6998,9 +7022,39 @@
       <c r="L200" s="1"/>
       <c r="M200" s="1"/>
     </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A201" s="3"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="3"/>
+      <c r="D201" s="3"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="3"/>
+      <c r="H201" s="3"/>
+      <c r="I201" s="3"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="3"/>
+      <c r="L201" s="1"/>
+      <c r="M201" s="1"/>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A202" s="3"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="3"/>
+      <c r="H202" s="3"/>
+      <c r="I202" s="3"/>
+      <c r="J202" s="1"/>
+      <c r="K202" s="3"/>
+      <c r="L202" s="1"/>
+      <c r="M202" s="1"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" errorTitle="Analyte Reported" error="Preferred value was not selected" promptTitle="Analyte Reported" prompt="Please choose preferred value from the list" sqref="J4:J201" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" errorTitle="Analyte Reported" error="Preferred value was not selected" promptTitle="Analyte Reported" prompt="Please choose preferred value from the list" sqref="J4:J203" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>lookupanalyte_reported1147</formula1>
     </dataValidation>
   </dataValidations>

--- a/ImmPort/CompletedTemplates/reagents.Flow_Cytometry.xlsx
+++ b/ImmPort/CompletedTemplates/reagents.Flow_Cytometry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drach\Documents\AlphaBeta\ImmPort\CompletedTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A264C6A3-13E9-4AD6-9752-CE065FDFDCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F891978-403E-445A-A5CD-69627091204E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="195" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="reagents.Flow_Cytometry.txt" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="1048">
   <si>
     <t>flow_cytometry_reagents</t>
   </si>
@@ -3195,9 +3195,6 @@
     <t>Alexa Fluor 488</t>
   </si>
   <si>
-    <t>FITC  Va24Ja18</t>
-  </si>
-  <si>
     <t>Va24Ja18</t>
   </si>
   <si>
@@ -3340,6 +3337,15 @@
   </si>
   <si>
     <t>hMR1 6-FP</t>
+  </si>
+  <si>
+    <t>FITC Va24Ja18</t>
+  </si>
+  <si>
+    <t>Unstained</t>
+  </si>
+  <si>
+    <t>Unstained Cells</t>
   </si>
 </sst>
 </file>
@@ -3792,15 +3798,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M202"/>
+  <dimension ref="A1:M203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="13.42578125" customWidth="1"/>
+    <col min="1" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="13" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4244,13 +4252,13 @@
         <v>994</v>
       </c>
       <c r="F22" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="J22" t="s">
         <v>995</v>
       </c>
       <c r="L22" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="M22" t="s">
         <v>996</v>
@@ -4259,19 +4267,19 @@
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E23" t="s">
         <v>994</v>
       </c>
       <c r="F23" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="J23" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="L23" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="M23" t="s">
         <v>996</v>
@@ -4280,7 +4288,7 @@
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" t="s">
-        <v>997</v>
+        <v>1045</v>
       </c>
       <c r="E24" t="s">
         <v>961</v>
@@ -4289,19 +4297,19 @@
         <v>342906</v>
       </c>
       <c r="J24" t="s">
+        <v>997</v>
+      </c>
+      <c r="L24" t="s">
         <v>998</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>999</v>
-      </c>
-      <c r="M24" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E25" t="s">
         <v>961</v>
@@ -4313,16 +4321,16 @@
         <v>301</v>
       </c>
       <c r="L25" t="s">
+        <v>1001</v>
+      </c>
+      <c r="M25" t="s">
         <v>1002</v>
-      </c>
-      <c r="M25" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E26" t="s">
         <v>961</v>
@@ -4334,16 +4342,16 @@
         <v>245</v>
       </c>
       <c r="L26" t="s">
+        <v>1004</v>
+      </c>
+      <c r="M26" t="s">
         <v>1005</v>
-      </c>
-      <c r="M26" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E27" t="s">
         <v>938</v>
@@ -4352,19 +4360,19 @@
         <v>555433</v>
       </c>
       <c r="J27" t="s">
+        <v>1007</v>
+      </c>
+      <c r="L27" t="s">
         <v>1008</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>1009</v>
-      </c>
-      <c r="M27" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E28" t="s">
         <v>961</v>
@@ -4376,37 +4384,37 @@
         <v>877</v>
       </c>
       <c r="L28" t="s">
+        <v>1011</v>
+      </c>
+      <c r="M28" t="s">
         <v>1012</v>
-      </c>
-      <c r="M28" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E29" t="s">
         <v>1014</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>1015</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1016</v>
       </c>
       <c r="J29" t="s">
         <v>821</v>
       </c>
       <c r="L29" t="s">
+        <v>1016</v>
+      </c>
+      <c r="M29" t="s">
         <v>1017</v>
-      </c>
-      <c r="M29" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E30" t="s">
         <v>961</v>
@@ -4418,58 +4426,58 @@
         <v>146</v>
       </c>
       <c r="L30" t="s">
+        <v>1019</v>
+      </c>
+      <c r="M30" t="s">
         <v>1020</v>
-      </c>
-      <c r="M30" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E31" t="s">
         <v>994</v>
       </c>
       <c r="F31" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="J31" t="s">
+        <v>1022</v>
+      </c>
+      <c r="L31" t="s">
+        <v>1039</v>
+      </c>
+      <c r="M31" t="s">
         <v>1023</v>
-      </c>
-      <c r="L31" t="s">
-        <v>1040</v>
-      </c>
-      <c r="M31" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E32" t="s">
         <v>994</v>
       </c>
       <c r="F32" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="J32" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="L32" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="M32" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E33" t="s">
         <v>961</v>
@@ -4478,19 +4486,19 @@
         <v>351726</v>
       </c>
       <c r="J33" t="s">
+        <v>1025</v>
+      </c>
+      <c r="L33" t="s">
         <v>1026</v>
       </c>
-      <c r="L33" t="s">
-        <v>1027</v>
-      </c>
       <c r="M33" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E34" t="s">
         <v>938</v>
@@ -4502,16 +4510,16 @@
         <v>98</v>
       </c>
       <c r="L34" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M34" t="s">
         <v>1029</v>
-      </c>
-      <c r="M34" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E35" t="s">
         <v>961</v>
@@ -4523,16 +4531,16 @@
         <v>248</v>
       </c>
       <c r="L35" t="s">
+        <v>1031</v>
+      </c>
+      <c r="M35" t="s">
         <v>1032</v>
-      </c>
-      <c r="M35" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E36" t="s">
         <v>961</v>
@@ -4544,16 +4552,16 @@
         <v>335</v>
       </c>
       <c r="L36" t="s">
+        <v>1034</v>
+      </c>
+      <c r="M36" t="s">
         <v>1035</v>
-      </c>
-      <c r="M36" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E37" t="s">
         <v>961</v>
@@ -4565,7 +4573,7 @@
         <v>279</v>
       </c>
       <c r="L37" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="M37" t="s">
         <v>996</v>
@@ -4574,7 +4582,7 @@
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E38" t="s">
         <v>961</v>
@@ -4586,26 +4594,34 @@
         <v>279</v>
       </c>
       <c r="L38" t="s">
+        <v>1038</v>
+      </c>
+      <c r="M38" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E39" t="s">
         <v>1039</v>
       </c>
-      <c r="M38" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+      <c r="F39" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1039</v>
+      </c>
+      <c r="M39" t="s">
+        <v>1046</v>
+      </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
@@ -7052,9 +7068,24 @@
       <c r="L202" s="1"/>
       <c r="M202" s="1"/>
     </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A203" s="3"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="3"/>
+      <c r="H203" s="3"/>
+      <c r="I203" s="3"/>
+      <c r="J203" s="1"/>
+      <c r="K203" s="3"/>
+      <c r="L203" s="1"/>
+      <c r="M203" s="1"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" errorTitle="Analyte Reported" error="Preferred value was not selected" promptTitle="Analyte Reported" prompt="Please choose preferred value from the list" sqref="J4:J203" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" errorTitle="Analyte Reported" error="Preferred value was not selected" promptTitle="Analyte Reported" prompt="Please choose preferred value from the list" sqref="J40:J204 J4:J38" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>lookupanalyte_reported1147</formula1>
     </dataValidation>
   </dataValidations>

--- a/ImmPort/CompletedTemplates/reagents.Flow_Cytometry.xlsx
+++ b/ImmPort/CompletedTemplates/reagents.Flow_Cytometry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drach\Documents\AlphaBeta\ImmPort\CompletedTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F891978-403E-445A-A5CD-69627091204E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE138CEE-78FE-4E67-967D-1CDA65AD661E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="195" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="reagents.Flow_Cytometry.txt" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="1052">
   <si>
     <t>flow_cytometry_reagents</t>
   </si>
@@ -3346,6 +3346,18 @@
   </si>
   <si>
     <t>Unstained Cells</t>
+  </si>
+  <si>
+    <t>FITC CD3</t>
+  </si>
+  <si>
+    <t>FITC</t>
+  </si>
+  <si>
+    <t>Zombie NIR Viability</t>
+  </si>
+  <si>
+    <t>Zombie NIR</t>
   </si>
 </sst>
 </file>
@@ -3447,7 +3459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3463,6 +3475,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3801,7 +3816,7 @@
   <dimension ref="A1:M203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+      <selection activeCell="A39" sqref="A4:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4625,33 +4640,51 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E40" t="s">
+        <v>961</v>
+      </c>
+      <c r="F40">
+        <v>300415</v>
+      </c>
+      <c r="J40" t="s">
+        <v>279</v>
+      </c>
+      <c r="L40" t="s">
+        <v>1037</v>
+      </c>
+      <c r="M40" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
-      <c r="B41" s="1"/>
+      <c r="B41" s="6" t="s">
+        <v>1050</v>
+      </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="E41" t="s">
+        <v>961</v>
+      </c>
+      <c r="F41" s="6">
+        <v>423105</v>
+      </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="1"/>
+      <c r="J41" t="s">
+        <v>1039</v>
+      </c>
       <c r="K41" s="3"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+      <c r="L41" t="s">
+        <v>1039</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>1051</v>
+      </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
@@ -7085,7 +7118,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" errorTitle="Analyte Reported" error="Preferred value was not selected" promptTitle="Analyte Reported" prompt="Please choose preferred value from the list" sqref="J40:J204 J4:J38" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" errorTitle="Analyte Reported" error="Preferred value was not selected" promptTitle="Analyte Reported" prompt="Please choose preferred value from the list" sqref="J4:J38 J40 J42:J204" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>lookupanalyte_reported1147</formula1>
     </dataValidation>
   </dataValidations>
